--- a/data/trans_dic/P7B_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P7B_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas &lt; 16 años</t>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,54 +681,54 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>31,7%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>30,83%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>31,07%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34,23%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
           <t>31,71%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>30,8%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>31,8%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>31,07%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>33,92%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>35,15%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>33,84%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>31,7%</t>
-        </is>
-      </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
           <t>32,86%</t>
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,78; 35,9</t>
+          <t>28,05; 35,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,67; 35,73</t>
+          <t>26,97; 35,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 36,26</t>
+          <t>27,87; 35,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>25,55; 33,57</t>
+          <t>25,27; 32,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,64; 35,17</t>
+          <t>27,41; 34,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,4; 37,07</t>
+          <t>30,54; 37,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,45; 38,57</t>
+          <t>31,82; 39,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,0; 37,81</t>
+          <t>30,93; 37,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,94</t>
+          <t>30,57; 37,09</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,66; 35,09</t>
+          <t>28,38; 34,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 35,4</t>
+          <t>30,39; 35,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,29; 35,96</t>
+          <t>30,47; 35,91</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>30,6; 35,85</t>
+          <t>30,23; 35,28</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>29,12; 34,36</t>
+          <t>29,45; 34,27</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>28,91; 33,9</t>
+          <t>28,86; 33,58</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>34,28%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>36,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,17 +881,17 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,74%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>38,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -905,17 +906,17 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,24; 41,24</t>
+          <t>31,51; 41,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,48; 43,9</t>
+          <t>31,99; 42,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 39,26</t>
+          <t>29,71; 38,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,32; 37,65</t>
+          <t>28,21; 37,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,34; 45,13</t>
+          <t>30,34; 44,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 40,75</t>
+          <t>32,32; 39,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,56; 42,36</t>
+          <t>33,72; 42,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,72; 43,68</t>
+          <t>35,21; 43,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34,13; 42,53</t>
+          <t>33,71; 41,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,49; 47,87</t>
+          <t>34,83; 48,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,41; 39,55</t>
+          <t>33,26; 39,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,38; 41,32</t>
+          <t>34,08; 41,21</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>33,62; 39,98</t>
+          <t>33,96; 40,14</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>32,6; 38,84</t>
+          <t>32,61; 38,65</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>33,79; 43,85</t>
+          <t>34,3; 44,03</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>33,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>29,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>29,34%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>30,1%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>27,73%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,17 +1076,17 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>32,16%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>29,47%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,71; 42,01</t>
+          <t>23,17; 42,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,68; 42,91</t>
+          <t>24,52; 47,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 38,5</t>
+          <t>21,13; 40,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 38,84</t>
+          <t>21,33; 41,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,69; 39,52</t>
+          <t>25,93; 39,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 38,66</t>
+          <t>23,65; 39,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,75; 37,22</t>
+          <t>23,41; 37,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 35,1</t>
+          <t>20,99; 34,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,51; 38,33</t>
+          <t>25,76; 38,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,88; 38,5</t>
+          <t>26,29; 39,62</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>23,66; 35,27</t>
+          <t>24,49; 35,68</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 34,16</t>
+          <t>23,33; 35,61</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>32,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,68%</t>
+          <t>30,73%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1215,22 +1216,22 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>35,77%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>34,78%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1245,12 +1246,12 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,62%</t>
+          <t>34,68%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>34,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
@@ -1260,7 +1261,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>33,09%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,26; 36,01</t>
+          <t>30,53; 36,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>30,6; 37,39</t>
+          <t>30,54; 36,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 35,33</t>
+          <t>29,37; 35,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 33,7</t>
+          <t>27,82; 33,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,46; 36,17</t>
+          <t>29,11; 36,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,08; 36,79</t>
+          <t>32,22; 37,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,65; 37,98</t>
+          <t>33,16; 38,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,39</t>
+          <t>33,45; 38,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,45; 37,22</t>
+          <t>32,51; 37,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 36,79</t>
+          <t>30,92; 36,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>32,28; 36,05</t>
+          <t>32,22; 36,03</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,82</t>
+          <t>32,7; 36,96</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>32,32; 36,12</t>
+          <t>32,19; 36,05</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>31,03; 34,73</t>
+          <t>30,88; 34,59</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>30,94; 35,38</t>
+          <t>30,88; 35,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas &lt; 16 años (tasa de respuesta: 99,82%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>211.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>291.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>428.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>516.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>505671</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>511763</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>475576</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>71146</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>607380</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>635885</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>621125</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>615067</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>75422</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1127346</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1141556</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1132888</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1090643</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>146569</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>460031; 585687</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>442400; 579306</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>455788; 578241</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>413167; 538051</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>62760; 80061</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>547006; 668849</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>575136; 708132</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>561158; 684430</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>552775; 670563</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>67508; 82806</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1042758; 1222043</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1050403; 1237950</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1042948; 1217088</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1014085; 1179943</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>134766; 156788</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>432.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>503025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>506153</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>470939</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>456641</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26709</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>510849</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>522513</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>539624</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>521682</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26808</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1013874</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1028666</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1010562</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>978322</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>53518</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>436970; 569280</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>438080; 584786</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>408593; 534697</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>389212; 522176</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>21933; 32101</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>455638; 562153</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>465624; 582017</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>480161; 589654</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>462490; 575937</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>22837; 31518</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>930224; 1100521</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>937111; 1133372</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>930089; 1099204</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>897247; 1063491</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>47283; 60692</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>130104</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>139701</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>122719</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>124068</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133366</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>128783</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>122557</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>112494</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>263470</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>268484</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>245277</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>236562</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97986; 178112</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>103684; 200130</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>89362; 171345</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90176; 174445</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>106819; 162115</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>97410; 162627</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95863; 152028</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>86456; 141204</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>215016; 319987</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>219408; 330696</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>203855; 296961</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>194778; 297203</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>429.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>414.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>491.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>613.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1000.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>860.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>1031.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1027.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>689.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1153094</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1151525</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1105421</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1056285</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97856</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1251595</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1287181</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1283306</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1249243</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>102231</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2404690</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2438706</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2388727</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2305528</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>200087</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1053035; 1257927</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1048198; 1266021</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1008416; 1202615</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>956392; 1152077</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>87706; 108458</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1163874; 1339773</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1193592; 1375573</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1199983; 1368748</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1167888; 1342249</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>93829; 111417</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2275142; 2544633</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2299764; 2599478</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2260079; 2531175</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2171078; 2431299</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>186753; 212998</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>